--- a/Ranking.xlsx
+++ b/Ranking.xlsx
@@ -1,64 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F45957-42CA-4CBE-A621-B2A0B19B064F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="11355" windowHeight="9210"/>
+    <workbookView xWindow="1470" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Ranking"/>
+    <sheet name="Ranking" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="true"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="6">
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Puntos</t>
+  </si>
+  <si>
+    <t>Portu</t>
+  </si>
+  <si>
+    <t>IMAGE PORTUGAL</t>
+  </si>
+  <si>
+    <t>Posición</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -78,14 +91,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -94,10 +101,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -112,6 +128,7 @@
       <bottom style="thin">
         <color rgb="FFD0D7E5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -126,46 +143,22 @@
       <bottom style="thin">
         <color rgb="FFD0D7E5"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="left"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -173,13 +166,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,7 +218,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -251,6 +252,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -285,9 +287,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -460,47 +463,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="true" min="1" max="1" width="13.8359375"/>
-    <col customWidth="true" min="2" max="2" width="24.31640625"/>
-    <col customWidth="true" min="3" max="3" width="13.8359375"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Nickname</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Puntos</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>Portu</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>IMAGE PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C2" s="5">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/Ranking.xlsx
+++ b/Ranking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Image Tours\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F45957-42CA-4CBE-A621-B2A0B19B064F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB234BEF-5672-4F6A-AE95-530263220731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nickname</t>
   </si>
@@ -467,7 +467,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+      <selection activeCell="A3" sqref="A3:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -506,158 +506,59 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4000</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4000</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4000</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4000</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4000</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4000</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4000</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4000</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4000</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4000</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3">
-        <v>4000</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Ranking.xlsx
+++ b/Ranking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Image Tours\Ranking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB234BEF-5672-4F6A-AE95-530263220731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E12E1C-483A-4790-9A01-1025F89E04B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="3180" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nickname</t>
   </si>
@@ -31,10 +31,40 @@
     <t>Puntos</t>
   </si>
   <si>
+    <t>SILVIA P</t>
+  </si>
+  <si>
+    <t>INDRETS VIATGES</t>
+  </si>
+  <si>
     <t>Portu</t>
   </si>
   <si>
     <t>IMAGE PORTUGAL</t>
+  </si>
+  <si>
+    <t>Charo</t>
+  </si>
+  <si>
+    <t>Mari72</t>
+  </si>
+  <si>
+    <t>Guzm4n</t>
+  </si>
+  <si>
+    <t>noe22</t>
+  </si>
+  <si>
+    <t>Saruman</t>
+  </si>
+  <si>
+    <t>Mateo</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
+    <t>Lorea</t>
   </si>
   <si>
     <t>Posición</t>
@@ -464,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -478,8 +508,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
+      <c r="A1" t="s">
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -506,59 +536,106 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Ranking.xlsx
+++ b/Ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E12E1C-483A-4790-9A01-1025F89E04B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF52E3F3-8570-4B6A-8733-1F510D967DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="3180" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="3525" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="1" r:id="rId1"/>
@@ -43,15 +43,9 @@
     <t>IMAGE PORTUGAL</t>
   </si>
   <si>
-    <t>Charo</t>
-  </si>
-  <si>
     <t>Mari72</t>
   </si>
   <si>
-    <t>Guzm4n</t>
-  </si>
-  <si>
     <t>noe22</t>
   </si>
   <si>
@@ -68,6 +62,12 @@
   </si>
   <si>
     <t>Posición</t>
+  </si>
+  <si>
+    <t>Esther SV</t>
+  </si>
+  <si>
+    <t>Joh14</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -509,7 +509,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -554,10 +554,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -565,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>2000</v>
@@ -576,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>2000</v>
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>2000</v>
@@ -598,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>2000</v>
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>2000</v>
@@ -620,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>2000</v>
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>1000</v>
